--- a/LoowooTech.Stock/Excels/ExcelTwelve2.xlsx
+++ b/LoowooTech.Stock/Excels/ExcelTwelve2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -116,8 +116,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,8 +153,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,10 +169,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,7 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,48 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,181 +255,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,30 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,6 +512,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,29 +542,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +563,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -606,145 +606,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:CJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2122,90 +2122,90 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-      <c r="BM9" s="7"/>
-      <c r="BN9" s="7"/>
-      <c r="BO9" s="7"/>
-      <c r="BP9" s="7"/>
-      <c r="BQ9" s="7"/>
-      <c r="BR9" s="7"/>
-      <c r="BS9" s="7"/>
-      <c r="BT9" s="7"/>
-      <c r="BU9" s="7"/>
-      <c r="BV9" s="7"/>
-      <c r="BW9" s="7"/>
-      <c r="BX9" s="7"/>
-      <c r="BY9" s="7"/>
-      <c r="BZ9" s="7"/>
-      <c r="CA9" s="7"/>
-      <c r="CB9" s="7"/>
-      <c r="CC9" s="7"/>
-      <c r="CD9" s="7"/>
-      <c r="CE9" s="7"/>
-      <c r="CF9" s="7"/>
-      <c r="CG9" s="7"/>
-      <c r="CH9" s="7"/>
-      <c r="CI9" s="7"/>
-      <c r="CJ9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="8"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="8"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="8"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
+      <c r="CG9" s="8"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="41">
